--- a/ConsoleApp1/Sample/3-mst_file.xlsx
+++ b/ConsoleApp1/Sample/3-mst_file.xlsx
@@ -31,6 +31,12 @@
     <x:t>48/ (77%)</x:t>
   </x:si>
   <x:si>
+    <x:t>202/ (39%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37/ (34%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>23/ (37%)</x:t>
   </x:si>
   <x:si>
@@ -46,12 +52,21 @@
     <x:t>104/ (44%)</x:t>
   </x:si>
   <x:si>
+    <x:t>147/ (34%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56/ (30%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102/ (32%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201/ (32%)</x:t>
+  </x:si>
+  <x:si>
     <x:t>104/ (37%)</x:t>
   </x:si>
   <x:si>
-    <x:t>56/ (30%)</x:t>
-  </x:si>
-  <x:si>
     <x:t>102/ (35%)</x:t>
   </x:si>
   <x:si>
@@ -61,31 +76,16 @@
     <x:t>6/ (34%)</x:t>
   </x:si>
   <x:si>
-    <x:t>147/ (34%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102/ (32%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201/ (32%)</x:t>
+    <x:t>159/ (33%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51/ (28%)</x:t>
   </x:si>
   <x:si>
     <x:t>53/ (31%)</x:t>
   </x:si>
   <x:si>
     <x:t>79/ (28%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>202/ (39%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37/ (34%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>159/ (33%)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51/ (28%)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -491,7 +491,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -499,21 +499,21 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -524,7 +524,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -532,43 +532,43 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -579,7 +579,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -590,7 +590,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -601,7 +601,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -878,9 +878,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F930985-F3CB-486E-AB55-DAAEA890E534}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D7666F-2592-460A-B088-3A4673CC45A9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EC2CC3-5E81-48A7-B594-FC87C083D287}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAAE76B8-4550-4BFE-ABCC-05AB0C9BB7EC}"/>
 </file>